--- a/College-Course.xlsx
+++ b/College-Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\admindesk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECA04B-FB99-4FB9-A072-BDEDAE00BE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9A868-7A99-455F-80E2-84372F247628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>05</t>
   </si>
@@ -90,9 +90,6 @@
     <t>02</t>
   </si>
   <si>
-    <t>SKPIMCS</t>
-  </si>
-  <si>
     <t>NICSM</t>
   </si>
   <si>
@@ -216,17 +213,212 @@
     <t>BE</t>
   </si>
   <si>
-    <t>SKP</t>
+    <t>CMB01</t>
+  </si>
+  <si>
+    <t>CMB02</t>
+  </si>
+  <si>
+    <t>CMB03</t>
+  </si>
+  <si>
+    <t>CMB04</t>
+  </si>
+  <si>
+    <t>CMB05</t>
+  </si>
+  <si>
+    <t>CMB06</t>
+  </si>
+  <si>
+    <t>CMB07</t>
+  </si>
+  <si>
+    <t>CMB08</t>
+  </si>
+  <si>
+    <t>CMB09</t>
+  </si>
+  <si>
+    <t>CMB10</t>
+  </si>
+  <si>
+    <t>CMB11</t>
+  </si>
+  <si>
+    <t>CMB12</t>
+  </si>
+  <si>
+    <t>CSB0101</t>
+  </si>
+  <si>
+    <t>CSB0201</t>
+  </si>
+  <si>
+    <t>CSB0202</t>
+  </si>
+  <si>
+    <t>CSB0203</t>
+  </si>
+  <si>
+    <t>CSB0204</t>
+  </si>
+  <si>
+    <t>CSB0205</t>
+  </si>
+  <si>
+    <t>CSB0206</t>
+  </si>
+  <si>
+    <t>CSB0301</t>
+  </si>
+  <si>
+    <t>CSB0401</t>
+  </si>
+  <si>
+    <t>CMB13</t>
+  </si>
+  <si>
+    <t>CSB0501</t>
+  </si>
+  <si>
+    <t>CSB0502</t>
+  </si>
+  <si>
+    <t>CSB0503</t>
+  </si>
+  <si>
+    <t>CSB0504</t>
+  </si>
+  <si>
+    <t>CSB0505</t>
+  </si>
+  <si>
+    <t>CSB0506</t>
+  </si>
+  <si>
+    <t>CSB0507</t>
+  </si>
+  <si>
+    <t>MEAE</t>
+  </si>
+  <si>
+    <t>MECE</t>
+  </si>
+  <si>
+    <t>MECIIE</t>
+  </si>
+  <si>
+    <t>MEEEPS</t>
+  </si>
+  <si>
+    <t>MEMEPR</t>
+  </si>
+  <si>
+    <t>MEMETH</t>
+  </si>
+  <si>
+    <t>CSB0601</t>
+  </si>
+  <si>
+    <t>CSB0701</t>
+  </si>
+  <si>
+    <t>CSB0801</t>
+  </si>
+  <si>
+    <t>CSB0901</t>
+  </si>
+  <si>
+    <t>CSB1001</t>
+  </si>
+  <si>
+    <t>CSB1002</t>
+  </si>
+  <si>
+    <t>CSB1003</t>
+  </si>
+  <si>
+    <t>CSB1004</t>
+  </si>
+  <si>
+    <t>CSB1005</t>
+  </si>
+  <si>
+    <t>CMB14</t>
+  </si>
+  <si>
+    <t>CSB1101</t>
+  </si>
+  <si>
+    <t>CSB1201</t>
+  </si>
+  <si>
+    <t>CSB1301</t>
+  </si>
+  <si>
+    <t>CSB1401</t>
+  </si>
+  <si>
+    <t>CSB1402</t>
+  </si>
+  <si>
+    <t>CSB1403</t>
+  </si>
+  <si>
+    <t>CSB1404</t>
+  </si>
+  <si>
+    <t>CSB1405</t>
+  </si>
+  <si>
+    <t>CSB1406</t>
+  </si>
+  <si>
+    <t>CMB15</t>
+  </si>
+  <si>
+    <t>M.Pharm</t>
+  </si>
+  <si>
+    <t>CSB1501</t>
+  </si>
+  <si>
+    <t>SKPMBA</t>
+  </si>
+  <si>
+    <t>SKPMCA</t>
+  </si>
+  <si>
+    <t>CMB16</t>
+  </si>
+  <si>
+    <t>CSB1601</t>
+  </si>
+  <si>
+    <t>CMB50</t>
+  </si>
+  <si>
+    <t>PGDCA</t>
+  </si>
+  <si>
+    <t>CSB5001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,47 +732,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>27</v>
       </c>
@@ -588,10 +792,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,10 +806,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,10 +820,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>24</v>
       </c>
@@ -621,10 +834,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,52 +848,73 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>22</v>
       </c>
@@ -685,10 +922,13 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -696,10 +936,13 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>25</v>
       </c>
@@ -707,10 +950,13 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>52</v>
       </c>
@@ -718,178 +964,336 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A2 A5:A16" numberStoredAsText="1"/>
